--- a/files/exp2_mono_homo_epsilon.xlsx
+++ b/files/exp2_mono_homo_epsilon.xlsx
@@ -10,8 +10,7 @@
     <sheet name="gen_0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="gen_1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="gen_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="gen_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Función objetivo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Función objetivo" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -506,107 +505,107 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['010010' '010001']</t>
+          <t>['110111' '110110']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.4285714285714286</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.5565633660871756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.5565633660871756</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['010010' '010001']</t>
+          <t>['110111' '110110']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.4603174603174603</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.2118921642731167</v>
+        <v>0.510204081632653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6825396825396823</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>111001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['000000' '101000']</t>
+          <t>['101100' '110001']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.01587301587301582</v>
+        <v>0.8095238095238093</v>
       </c>
       <c r="J4" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>111001</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.0002519526329050121</v>
+        <v>0.6553287981859407</v>
       </c>
     </row>
     <row r="5">
@@ -626,267 +625,267 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['000000' '101000']</t>
+          <t>['101100' '110001']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.746031746031746</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.0204081632653061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5238095238095237</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.27437641723356</v>
+        <v>0.3086419753086417</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['110000' '110101']</t>
+          <t>['101101' '110011']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.4658604182413704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4603174603174603</v>
+        <v>0.4603174603174602</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>101110</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2118921642731167</v>
+        <v>0.2118921642731166</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>101011</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['110000' '110101']</t>
+          <t>['101101' '110011']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="J7" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>101011</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.3086419753086417</v>
+        <v>0.1332829428067523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.4285714285714286</v>
+        <v>0.4285714285714284</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>101101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.1836734693877549</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['110011' '101001']</t>
+          <t>['101110' '010110']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.5555555555555554</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="J8" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.3086419753086417</v>
+        <v>0.655328798185941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3968253968253967</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>101100</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1574703955656336</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>101011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['110011' '101001']</t>
+          <t>['101110' '010110']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="J9" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>101011</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.1332829428067523</v>
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3015873015873014</v>
+        <v>-0.3015873015873016</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>101001</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0909549004787099</v>
+        <v>0.09095490047871002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>011000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111010' '101010']</t>
+          <t>['011000' '000000']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.2380952380952381</v>
       </c>
       <c r="J10" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>011000</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.05668934240362813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2698412698412698</v>
+        <v>-0.2380952380952381</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>101000</t>
+          <t>011000</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.07281431090954897</v>
+        <v>0.05668934240362813</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111010' '101010']</t>
+          <t>['011000' '000000']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.3333333333333333</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -977,387 +976,387 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['001000' '111010']</t>
+          <t>['110111' '110111']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.2380952380952381</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.05668934240362813</v>
+        <v>0.5565633660871756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8412698412698412</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7077349458301837</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['001000' '111010']</t>
+          <t>['110111' '110111']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="J3" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.5565633660871756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>110011</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['110001' '110011']</t>
+          <t>['110110' '000000']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>110011</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.3832199546485261</v>
+        <v>0.3449231544469639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.746031746031746</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.655328798185941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['110001' '110011']</t>
+          <t>['110110' '000000']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.5555555555555554</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J5" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.3086419753086417</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6825396825396823</v>
+        <v>0.8095238095238093</v>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>111001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.6553287981859407</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['110001' '110100']</t>
+          <t>['000000' '110110']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.5555555555555554</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.3086419753086417</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.5565633660871756</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['110001' '110100']</t>
+          <t>['000000' '110110']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="J7" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.3449231544469639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110011</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3832199546485261</v>
+        <v>0.5565633660871756</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['111010' '000000']</t>
+          <t>['111001' '110101']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.5873015873015872</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="B9" t="n">
+        <v>54</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>110110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.510204081632653</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111001' '110101']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0.5555555555555554</v>
       </c>
-      <c r="B9" t="n">
+      <c r="J9" t="n">
         <v>49</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>110001</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="L9" t="n">
         <v>0.3086419753086417</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>001000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['111010' '000000']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.746031746031746</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>001000</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.5565633660871756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="B10" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3086419753086417</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>101110</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['110101' '110000']</t>
+          <t>['000110' '111110']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.6825396825396823</v>
+        <v>0.4603174603174602</v>
       </c>
       <c r="J10" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>101110</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.2118921642731166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5238095238095237</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.27437641723356</v>
+        <v>0.4658604182413704</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['110101' '110000']</t>
+          <t>['000110' '111110']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.5238095238095237</v>
+        <v>-0.3015873015873016</v>
       </c>
       <c r="J11" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>110000</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.27437641723356</v>
+        <v>0.09095490047871002</v>
       </c>
     </row>
   </sheetData>
@@ -1448,283 +1447,283 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['000000' '110011']</t>
+          <t>['110111' '111110']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.510204081632653</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8412698412698412</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7077349458301837</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['000000' '110011']</t>
+          <t>['110111' '111110']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.5555555555555554</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.3086419753086417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.9375157470395563</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['111010' '110101']</t>
+          <t>['110111' '000000']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.873015873015873</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="J4" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.762156714537667</v>
+        <v>0.5565633660871756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.746031746031746</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.8770471151423528</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['111010' '110101']</t>
+          <t>['110111' '000000']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.6507936507936507</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.4235323759133282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.746031746031746</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['110100' '111010']</t>
+          <t>['000100' '111001']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.0204081632653061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6825396825396823</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.762156714537667</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['110100' '111010']</t>
+          <t>['000100' '111001']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.2063492063492064</v>
       </c>
       <c r="J7" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.04257999496094736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6825396825396823</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.655328798185941</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>111000</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['110100' '001000']</t>
+          <t>['000100' '000110']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.7777777777777777</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>111000</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.6049382716049381</v>
+        <v>0.655328798185941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.8095238095238093</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>111001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.6553287981859407</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1733,7 +1732,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['110100' '001000']</t>
+          <t>['000100' '000110']</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1753,82 +1752,82 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110100</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4235323759133282</v>
+        <v>0.5565633660871756</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['110101' '001000']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.3650793650793651</v>
+        <v>-0.2063492063492064</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.1332829428067523</v>
+        <v>0.04257999496094736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110011</t>
+          <t>110111</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3832199546485261</v>
+        <v>0.5565633660871756</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>101001</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['110101' '001000']</t>
+          <t>['111101' '000000']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.3015873015873014</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J11" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>101001</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.0909549004787099</v>
+        <v>0.0204081632653061</v>
       </c>
     </row>
   </sheetData>
@@ -1837,477 +1836,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hijo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>padres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valor_real</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>valor_normal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>valor_binario</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aptitud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['000000' '000010']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-0.9365079365079365</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8770471151423532</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['000000' '000010']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.873015873015873</v>
-      </c>
-      <c r="B4" t="n">
-        <v>59</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>111011</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.762156714537667</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['111000' '111010']</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J4" t="n">
-        <v>58</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-0.873015873015873</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>000100</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.762156714537667</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>111000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['111000' '111010']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="J5" t="n">
-        <v>56</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>111000</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6049382716049381</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="B6" t="n">
-        <v>58</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>011000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['001000' '111011']</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.2380952380952381</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>011000</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0.05668934240362813</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="B7" t="n">
-        <v>58</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>101011</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['001000' '111011']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3650793650793651</v>
-      </c>
-      <c r="J7" t="n">
-        <v>43</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>101011</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1332829428067523</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="B8" t="n">
-        <v>58</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['111010' '111010']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J8" t="n">
-        <v>58</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="B9" t="n">
-        <v>56</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>111000</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6049382716049381</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['111010' '111010']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="J9" t="n">
-        <v>58</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>111010</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0.7077349458301837</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.746031746031746</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>001000</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5565633660871756</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>001100</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['000100' '001000']</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.6190476190476191</v>
-      </c>
-      <c r="J10" t="n">
-        <v>12</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>001100</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3832199546485261</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-0.746031746031746</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>001000</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5565633660871756</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['000100' '001000']</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2377,14 +1905,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>111111</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2393,50 +1921,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9365079365079365</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9365079365079365</v>
+        <v>0.9682539682539681</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8770471151423532</v>
+        <v>0.9375157470395563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9365079365079363</v>
       </c>
       <c r="B7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>111101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8770471151423528</v>
       </c>
     </row>
     <row r="8">
@@ -2457,50 +1985,50 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B9" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.873015873015873</v>
       </c>
       <c r="B10" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.762156714537667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.8095238095238095</v>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7077349458301837</v>
+        <v>0.655328798185941</v>
       </c>
     </row>
   </sheetData>

--- a/files/exp2_mono_homo_epsilon.xlsx
+++ b/files/exp2_mono_homo_epsilon.xlsx
@@ -10,7 +10,8 @@
     <sheet name="gen_0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="gen_1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="gen_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Función objetivo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="gen_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Función objetivo" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,54 +491,54 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9375157470395565</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['110111' '110110']</t>
+          <t>['110000' '101000']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.746031746031746</v>
+        <v>0.01587301587301582</v>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.0002519526329050121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.746031746031746</v>
+        <v>-0.746031746031746</v>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -545,323 +546,323 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['110111' '110110']</t>
+          <t>['110000' '101000']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J3" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.510204081632653</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7142857142857142</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.510204081632653</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>111001</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['101100' '110001']</t>
+          <t>['110100' '001001']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.8095238095238093</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="J4" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>111001</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.6553287981859407</v>
+        <v>0.3086419753086417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110011</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.510204081632653</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>001100</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['110100' '001001']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.6190476190476191</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>001100</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>0.3832199546485261</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100100</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['101100' '110001']</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>100100</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0204081632653061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.6507936507936507</v>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>110100</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3086419753086417</v>
+        <v>0.4235323759133282</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['101101' '110011']</t>
+          <t>['001000' '110110']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.6825396825396823</v>
+        <v>-0.3650793650793651</v>
       </c>
       <c r="J6" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.1332829428067523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4603174603174602</v>
+        <v>0.5238095238095237</v>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>101110</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2118921642731166</v>
+        <v>0.27437641723356</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>101011</t>
+          <t>101010</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['101101' '110011']</t>
+          <t>['001000' '110110']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>101011</t>
+          <t>101010</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.1332829428067523</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4285714285714284</v>
+        <v>-0.3650793650793651</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>101101</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1836734693877549</v>
+        <v>0.1332829428067523</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>100111</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['101110' '010110']</t>
+          <t>['100110' '100101']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.8095238095238095</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>100111</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.655328798185941</v>
+        <v>0.05668934240362813</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3968253968253967</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>101100</t>
+          <t>101000</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1574703955656336</v>
+        <v>0.07281431090954897</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['101110' '010110']</t>
+          <t>['100110' '100101']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.9682539682539681</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J9" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.9375157470395563</v>
+        <v>0.0204081632653061</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3015873015873016</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>010110</t>
+          <t>100110</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.09095490047871002</v>
+        <v>0.04257999496094732</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>010101</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['011000' '000000']</t>
+          <t>['000001' '010100']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.2380952380952381</v>
+        <v>-0.3333333333333334</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>010101</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.05668934240362813</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2380952380952381</v>
+        <v>0.1746031746031744</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>011000</t>
+          <t>100101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.05668934240362813</v>
+        <v>0.03048626858150661</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -870,7 +871,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['011000' '000000']</t>
+          <t>['000001' '010100']</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -976,387 +977,387 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['110111' '110111']</t>
+          <t>['001100' '110000']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.746031746031746</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.8185941043083899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>-0.9682539682539683</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9375157470395565</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['001100' '110000']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>-1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>000000</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>110111</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['110111' '110111']</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>110111</t>
-        </is>
-      </c>
       <c r="L3" t="n">
-        <v>0.5565633660871756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9682539682539681</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9375157470395563</v>
+        <v>0.6049382716049381</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>101000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['110110' '000000']</t>
+          <t>['000000' '111000']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.5873015873015872</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>101000</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.07281431090954897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.8095238095238095</v>
+        <v>-0.746031746031746</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.655328798185941</v>
+        <v>0.5565633660871756</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>010000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['110110' '000000']</t>
+          <t>['000000' '111000']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.873015873015873</v>
+        <v>-0.4920634920634921</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>010000</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.762156714537667</v>
+        <v>0.2421264802217183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8095238095238093</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111001</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6553287981859407</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['000000' '110110']</t>
+          <t>['001001' '000001']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.873015873015873</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.762156714537667</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.746031746031746</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['000000' '110110']</t>
+          <t>['001001' '000001']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5873015873015872</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.3449231544469639</v>
+        <v>0.9375157470395565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.746031746031746</v>
+        <v>0.6507936507936507</v>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>110100</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.4235323759133282</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['111001' '110101']</t>
+          <t>['110001' '110110']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.9365079365079363</v>
+        <v>0.5873015873015872</v>
       </c>
       <c r="J8" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.3449231544469639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7142857142857142</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.510204081632653</v>
+        <v>0.3832199546485261</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['111001' '110101']</t>
+          <t>['110001' '110110']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="J9" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.3086419753086417</v>
+        <v>0.4658604182413704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.510204081632653</v>
+        <v>0.3086419753086417</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>101110</t>
+          <t>011100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['000110' '111110']</t>
+          <t>['001000' '110100']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.4603174603174602</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="J10" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>101110</t>
+          <t>011100</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.2118921642731166</v>
+        <v>0.01234567901234569</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6825396825396823</v>
+        <v>0.5238095238095237</v>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110101</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4658604182413704</v>
+        <v>0.27437641723356</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>010110</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['000110' '111110']</t>
+          <t>['001000' '110100']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.3015873015873016</v>
+        <v>0.01587301587301582</v>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>010110</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.09095490047871002</v>
+        <v>0.0002519526329050121</v>
       </c>
     </row>
   </sheetData>
@@ -1447,27 +1448,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['110111' '111110']</t>
+          <t>['000001' '111100']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.7142857142857142</v>
+        <v>-0.746031746031746</v>
       </c>
       <c r="J2" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>110110</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.510204081632653</v>
+        <v>0.5565633660871756</v>
       </c>
     </row>
     <row r="3">
@@ -1487,347 +1488,347 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['110111' '111110']</t>
+          <t>['000001' '111100']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.6825396825396823</v>
       </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>110101</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.4658604182413704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9682539682539681</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9375157470395563</v>
+        <v>0.9375157470395565</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['110111' '000000']</t>
+          <t>['111000' '110110']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.746031746031746</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.6049382716049381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9365079365079363</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.9375157470395565</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['110111' '000000']</t>
+          <t>['111000' '110110']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.510204081632653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.873015873015873</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>111100</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.762156714537667</v>
+        <v>0.8185941043083899</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100100</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['000100' '111001']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.1428571428571428</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>100100</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.0204081632653061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.873015873015873</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>111000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.762156714537667</v>
+        <v>0.6049382716049381</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['000100' '111001']</t>
+          <t>['000000' '000000']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-0.2063492063492064</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.04257999496094736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8095238095238095</v>
+        <v>-0.746031746031746</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.655328798185941</v>
+        <v>0.5565633660871756</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['000100' '000110']</t>
+          <t>['001000' '000001']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.8095238095238095</v>
+        <v>-0.746031746031746</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.655328798185941</v>
+        <v>0.5565633660871756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8095238095238093</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111001</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6553287981859407</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['000100' '000110']</t>
+          <t>['001000' '000001']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.873015873015873</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.762156714537667</v>
+        <v>0.9375157470395565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.746031746031746</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['111101' '000000']</t>
+          <t>['001001' '001001']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.2063492063492064</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>011001</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.04257999496094736</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.746031746031746</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="B11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110111</t>
+          <t>110110</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5565633660871756</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100100</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['111101' '000000']</t>
+          <t>['001001' '001001']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="J11" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>100100</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
   </sheetData>
@@ -1836,6 +1837,477 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hijo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>padres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>valor_real</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>valor_normal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>valor_binario</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aptitud</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['000001' '000000']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.9682539682539683</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9375157470395565</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['000001' '000000']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['000000' '111000']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5238095238095237</v>
+      </c>
+      <c r="J4" t="n">
+        <v>48</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.27437641723356</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['000000' '111000']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.746031746031746</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5565633660871756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9682539682539683</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9375157470395565</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['000001' '000001']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9682539682539683</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9375157470395565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.9682539682539683</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375157470395565</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['000001' '000001']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.9682539682539683</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9375157470395565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.9682539682539683</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9375157470395565</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['111100' '000000']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1111111111111112</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01234567901234569</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9047619047619047</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>111100</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8185941043083899</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['111100' '000000']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01587301587301582</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0002519526329050121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>111000</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6049382716049381</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['111000' '000000']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.2380952380952381</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.05668934240362813</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+      <c r="B11" t="n">
+        <v>56</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>111000</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6049382716049381</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['111000' '000000']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01587301587301582</v>
+      </c>
+      <c r="J11" t="n">
+        <v>32</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0002519526329050121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1905,14 +2377,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1937,98 +2409,98 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9682539682539681</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9375157470395563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9365079365079363</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111101</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8770471151423528</v>
+        <v>0.9375157470395565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.873015873015873</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.762156714537667</v>
+        <v>0.9375157470395565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.873015873015873</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.762156714537667</v>
+        <v>0.9375157470395565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.873015873015873</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.762156714537667</v>
+        <v>0.9375157470395565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.8095238095238095</v>
+        <v>-0.9682539682539683</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.655328798185941</v>
+        <v>0.9375157470395565</v>
       </c>
     </row>
   </sheetData>
